--- a/data/region/region.xlsx
+++ b/data/region/region.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\PyCode\gis-poi\data\region\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\gis-poi\data\region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD879D7A-2364-42AD-BBC3-1A7B4A64F8CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D078ED-2AE9-4AC2-B337-CCBF4B126AF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="3075" windowWidth="9240" windowHeight="7995" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6438" uniqueCount="3178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6438" uniqueCount="3511">
   <si>
     <t>北京市</t>
   </si>
@@ -9574,6 +9574,1011 @@
   <si>
     <t>level</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>石家庄市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐山市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦皇岛市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邯郸市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢台市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴音郭楞蒙古自治州</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保定市</t>
+  </si>
+  <si>
+    <t>张家口市</t>
+  </si>
+  <si>
+    <t>承德市</t>
+  </si>
+  <si>
+    <t>沧州市</t>
+  </si>
+  <si>
+    <t>廊坊市</t>
+  </si>
+  <si>
+    <t>衡水市</t>
+  </si>
+  <si>
+    <t>太原市</t>
+  </si>
+  <si>
+    <t>大同市</t>
+  </si>
+  <si>
+    <t>阳泉市</t>
+  </si>
+  <si>
+    <t>长治市</t>
+  </si>
+  <si>
+    <t>晋城市</t>
+  </si>
+  <si>
+    <t>朔州市</t>
+  </si>
+  <si>
+    <t>晋中市</t>
+  </si>
+  <si>
+    <t>运城市</t>
+  </si>
+  <si>
+    <t>忻州市</t>
+  </si>
+  <si>
+    <t>临汾市</t>
+  </si>
+  <si>
+    <t>吕梁市</t>
+  </si>
+  <si>
+    <t>呼和浩特市</t>
+  </si>
+  <si>
+    <t>包头市</t>
+  </si>
+  <si>
+    <t>乌海市</t>
+  </si>
+  <si>
+    <t>赤峰市</t>
+  </si>
+  <si>
+    <t>通辽市</t>
+  </si>
+  <si>
+    <t>鄂尔多斯市</t>
+  </si>
+  <si>
+    <t>呼伦贝尔市</t>
+  </si>
+  <si>
+    <t>巴彦淖尔市</t>
+  </si>
+  <si>
+    <t>乌兰察布市</t>
+  </si>
+  <si>
+    <t>兴安盟</t>
+  </si>
+  <si>
+    <t>锡林郭勒盟</t>
+  </si>
+  <si>
+    <t>阿拉善盟</t>
+  </si>
+  <si>
+    <t>沈阳市</t>
+  </si>
+  <si>
+    <t>大连市</t>
+  </si>
+  <si>
+    <t>鞍山市</t>
+  </si>
+  <si>
+    <t>抚顺市</t>
+  </si>
+  <si>
+    <t>本溪市</t>
+  </si>
+  <si>
+    <t>丹东市</t>
+  </si>
+  <si>
+    <t>锦州市</t>
+  </si>
+  <si>
+    <t>营口市</t>
+  </si>
+  <si>
+    <t>阜新市</t>
+  </si>
+  <si>
+    <t>辽阳市</t>
+  </si>
+  <si>
+    <t>盘锦市</t>
+  </si>
+  <si>
+    <t>铁岭市</t>
+  </si>
+  <si>
+    <t>朝阳市</t>
+  </si>
+  <si>
+    <t>葫芦岛市</t>
+  </si>
+  <si>
+    <t>长春市</t>
+  </si>
+  <si>
+    <t>吉林市</t>
+  </si>
+  <si>
+    <t>四平市</t>
+  </si>
+  <si>
+    <t>辽源市</t>
+  </si>
+  <si>
+    <t>通化市</t>
+  </si>
+  <si>
+    <t>白山市</t>
+  </si>
+  <si>
+    <t>松原市</t>
+  </si>
+  <si>
+    <t>白城市</t>
+  </si>
+  <si>
+    <t>延边朝鲜族自治州</t>
+  </si>
+  <si>
+    <t>哈尔滨市</t>
+  </si>
+  <si>
+    <t>齐齐哈尔市</t>
+  </si>
+  <si>
+    <t>鸡西市</t>
+  </si>
+  <si>
+    <t>鹤岗市</t>
+  </si>
+  <si>
+    <t>双鸭山市</t>
+  </si>
+  <si>
+    <t>大庆市</t>
+  </si>
+  <si>
+    <t>伊春市</t>
+  </si>
+  <si>
+    <t>佳木斯市</t>
+  </si>
+  <si>
+    <t>七台河市</t>
+  </si>
+  <si>
+    <t>牡丹江市</t>
+  </si>
+  <si>
+    <t>黑河市</t>
+  </si>
+  <si>
+    <t>绥化市</t>
+  </si>
+  <si>
+    <t>大兴安岭地区</t>
+  </si>
+  <si>
+    <t>南京市</t>
+  </si>
+  <si>
+    <t>无锡市</t>
+  </si>
+  <si>
+    <t>徐州市</t>
+  </si>
+  <si>
+    <t>常州市</t>
+  </si>
+  <si>
+    <t>苏州市</t>
+  </si>
+  <si>
+    <t>南通市</t>
+  </si>
+  <si>
+    <t>连云港市</t>
+  </si>
+  <si>
+    <t>淮安市</t>
+  </si>
+  <si>
+    <t>盐城市</t>
+  </si>
+  <si>
+    <t>扬州市</t>
+  </si>
+  <si>
+    <t>镇江市</t>
+  </si>
+  <si>
+    <t>泰州市</t>
+  </si>
+  <si>
+    <t>宿迁市</t>
+  </si>
+  <si>
+    <t>杭州市</t>
+  </si>
+  <si>
+    <t>宁波市</t>
+  </si>
+  <si>
+    <t>温州市</t>
+  </si>
+  <si>
+    <t>嘉兴市</t>
+  </si>
+  <si>
+    <t>湖州市</t>
+  </si>
+  <si>
+    <t>绍兴市</t>
+  </si>
+  <si>
+    <t>金华市</t>
+  </si>
+  <si>
+    <t>衢州市</t>
+  </si>
+  <si>
+    <t>舟山市</t>
+  </si>
+  <si>
+    <t>台州市</t>
+  </si>
+  <si>
+    <t>丽水市</t>
+  </si>
+  <si>
+    <t>合肥市</t>
+  </si>
+  <si>
+    <t>芜湖市</t>
+  </si>
+  <si>
+    <t>蚌埠市</t>
+  </si>
+  <si>
+    <t>淮南市</t>
+  </si>
+  <si>
+    <t>马鞍山市</t>
+  </si>
+  <si>
+    <t>淮北市</t>
+  </si>
+  <si>
+    <t>铜陵市</t>
+  </si>
+  <si>
+    <t>安庆市</t>
+  </si>
+  <si>
+    <t>黄山市</t>
+  </si>
+  <si>
+    <t>滁州市</t>
+  </si>
+  <si>
+    <t>阜阳市</t>
+  </si>
+  <si>
+    <t>宿州市</t>
+  </si>
+  <si>
+    <t>六安市</t>
+  </si>
+  <si>
+    <t>亳州市</t>
+  </si>
+  <si>
+    <t>池州市</t>
+  </si>
+  <si>
+    <t>宣城市</t>
+  </si>
+  <si>
+    <t>福州市</t>
+  </si>
+  <si>
+    <t>厦门市</t>
+  </si>
+  <si>
+    <t>莆田市</t>
+  </si>
+  <si>
+    <t>三明市</t>
+  </si>
+  <si>
+    <t>泉州市</t>
+  </si>
+  <si>
+    <t>漳州市</t>
+  </si>
+  <si>
+    <t>南平市</t>
+  </si>
+  <si>
+    <t>龙岩市</t>
+  </si>
+  <si>
+    <t>宁德市</t>
+  </si>
+  <si>
+    <t>南昌市</t>
+  </si>
+  <si>
+    <t>景德镇市</t>
+  </si>
+  <si>
+    <t>萍乡市</t>
+  </si>
+  <si>
+    <t>九江市</t>
+  </si>
+  <si>
+    <t>新余市</t>
+  </si>
+  <si>
+    <t>鹰潭市</t>
+  </si>
+  <si>
+    <t>赣州市</t>
+  </si>
+  <si>
+    <t>吉安市</t>
+  </si>
+  <si>
+    <t>宜春市</t>
+  </si>
+  <si>
+    <t>抚州市</t>
+  </si>
+  <si>
+    <t>上饶市</t>
+  </si>
+  <si>
+    <t>济南市</t>
+  </si>
+  <si>
+    <t>青岛市</t>
+  </si>
+  <si>
+    <t>淄博市</t>
+  </si>
+  <si>
+    <t>枣庄市</t>
+  </si>
+  <si>
+    <t>东营市</t>
+  </si>
+  <si>
+    <t>烟台市</t>
+  </si>
+  <si>
+    <t>潍坊市</t>
+  </si>
+  <si>
+    <t>济宁市</t>
+  </si>
+  <si>
+    <t>泰安市</t>
+  </si>
+  <si>
+    <t>威海市</t>
+  </si>
+  <si>
+    <t>日照市</t>
+  </si>
+  <si>
+    <t>临沂市</t>
+  </si>
+  <si>
+    <t>德州市</t>
+  </si>
+  <si>
+    <t>聊城市</t>
+  </si>
+  <si>
+    <t>滨州市</t>
+  </si>
+  <si>
+    <t>菏泽市</t>
+  </si>
+  <si>
+    <t>郑州市</t>
+  </si>
+  <si>
+    <t>开封市</t>
+  </si>
+  <si>
+    <t>洛阳市</t>
+  </si>
+  <si>
+    <t>平顶山市</t>
+  </si>
+  <si>
+    <t>安阳市</t>
+  </si>
+  <si>
+    <t>鹤壁市</t>
+  </si>
+  <si>
+    <t>新乡市</t>
+  </si>
+  <si>
+    <t>焦作市</t>
+  </si>
+  <si>
+    <t>濮阳市</t>
+  </si>
+  <si>
+    <t>许昌市</t>
+  </si>
+  <si>
+    <t>漯河市</t>
+  </si>
+  <si>
+    <t>三门峡市</t>
+  </si>
+  <si>
+    <t>南阳市</t>
+  </si>
+  <si>
+    <t>商丘市</t>
+  </si>
+  <si>
+    <t>信阳市</t>
+  </si>
+  <si>
+    <t>周口市</t>
+  </si>
+  <si>
+    <t>驻马店市</t>
+  </si>
+  <si>
+    <t>武汉市</t>
+  </si>
+  <si>
+    <t>黄石市</t>
+  </si>
+  <si>
+    <t>十堰市</t>
+  </si>
+  <si>
+    <t>宜昌市</t>
+  </si>
+  <si>
+    <t>襄阳市</t>
+  </si>
+  <si>
+    <t>鄂州市</t>
+  </si>
+  <si>
+    <t>荆门市</t>
+  </si>
+  <si>
+    <t>孝感市</t>
+  </si>
+  <si>
+    <t>荆州市</t>
+  </si>
+  <si>
+    <t>黄冈市</t>
+  </si>
+  <si>
+    <t>咸宁市</t>
+  </si>
+  <si>
+    <t>随州市</t>
+  </si>
+  <si>
+    <t>恩施土家族苗族自治州</t>
+  </si>
+  <si>
+    <t>长沙市</t>
+  </si>
+  <si>
+    <t>株洲市</t>
+  </si>
+  <si>
+    <t>湘潭市</t>
+  </si>
+  <si>
+    <t>衡阳市</t>
+  </si>
+  <si>
+    <t>邵阳市</t>
+  </si>
+  <si>
+    <t>岳阳市</t>
+  </si>
+  <si>
+    <t>常德市</t>
+  </si>
+  <si>
+    <t>张家界市</t>
+  </si>
+  <si>
+    <t>益阳市</t>
+  </si>
+  <si>
+    <t>郴州市</t>
+  </si>
+  <si>
+    <t>永州市</t>
+  </si>
+  <si>
+    <t>怀化市</t>
+  </si>
+  <si>
+    <t>娄底市</t>
+  </si>
+  <si>
+    <t>湘西土家族苗族自治州</t>
+  </si>
+  <si>
+    <t>广州市</t>
+  </si>
+  <si>
+    <t>韶关市</t>
+  </si>
+  <si>
+    <t>深圳市</t>
+  </si>
+  <si>
+    <t>珠海市</t>
+  </si>
+  <si>
+    <t>汕头市</t>
+  </si>
+  <si>
+    <t>佛山市</t>
+  </si>
+  <si>
+    <t>江门市</t>
+  </si>
+  <si>
+    <t>湛江市</t>
+  </si>
+  <si>
+    <t>茂名市</t>
+  </si>
+  <si>
+    <t>肇庆市</t>
+  </si>
+  <si>
+    <t>惠州市</t>
+  </si>
+  <si>
+    <t>梅州市</t>
+  </si>
+  <si>
+    <t>汕尾市</t>
+  </si>
+  <si>
+    <t>河源市</t>
+  </si>
+  <si>
+    <t>阳江市</t>
+  </si>
+  <si>
+    <t>清远市</t>
+  </si>
+  <si>
+    <t>东莞市</t>
+  </si>
+  <si>
+    <t>中山市</t>
+  </si>
+  <si>
+    <t>潮州市</t>
+  </si>
+  <si>
+    <t>揭阳市</t>
+  </si>
+  <si>
+    <t>云浮市</t>
+  </si>
+  <si>
+    <t>南宁市</t>
+  </si>
+  <si>
+    <t>柳州市</t>
+  </si>
+  <si>
+    <t>桂林市</t>
+  </si>
+  <si>
+    <t>梧州市</t>
+  </si>
+  <si>
+    <t>北海市</t>
+  </si>
+  <si>
+    <t>防城港市</t>
+  </si>
+  <si>
+    <t>钦州市</t>
+  </si>
+  <si>
+    <t>贵港市</t>
+  </si>
+  <si>
+    <t>玉林市</t>
+  </si>
+  <si>
+    <t>百色市</t>
+  </si>
+  <si>
+    <t>贺州市</t>
+  </si>
+  <si>
+    <t>河池市</t>
+  </si>
+  <si>
+    <t>来宾市</t>
+  </si>
+  <si>
+    <t>崇左市</t>
+  </si>
+  <si>
+    <t>海口市</t>
+  </si>
+  <si>
+    <t>三亚市</t>
+  </si>
+  <si>
+    <t>三沙市</t>
+  </si>
+  <si>
+    <t>儋州市</t>
+  </si>
+  <si>
+    <t>成都市</t>
+  </si>
+  <si>
+    <t>自贡市</t>
+  </si>
+  <si>
+    <t>攀枝花市</t>
+  </si>
+  <si>
+    <t>泸州市</t>
+  </si>
+  <si>
+    <t>德阳市</t>
+  </si>
+  <si>
+    <t>绵阳市</t>
+  </si>
+  <si>
+    <t>广元市</t>
+  </si>
+  <si>
+    <t>遂宁市</t>
+  </si>
+  <si>
+    <t>内江市</t>
+  </si>
+  <si>
+    <t>乐山市</t>
+  </si>
+  <si>
+    <t>南充市</t>
+  </si>
+  <si>
+    <t>眉山市</t>
+  </si>
+  <si>
+    <t>宜宾市</t>
+  </si>
+  <si>
+    <t>广安市</t>
+  </si>
+  <si>
+    <t>达州市</t>
+  </si>
+  <si>
+    <t>雅安市</t>
+  </si>
+  <si>
+    <t>巴中市</t>
+  </si>
+  <si>
+    <t>资阳市</t>
+  </si>
+  <si>
+    <t>阿坝藏族羌族自治州</t>
+  </si>
+  <si>
+    <t>甘孜藏族自治州</t>
+  </si>
+  <si>
+    <t>凉山彝族自治州</t>
+  </si>
+  <si>
+    <t>贵阳市</t>
+  </si>
+  <si>
+    <t>六盘水市</t>
+  </si>
+  <si>
+    <t>遵义市</t>
+  </si>
+  <si>
+    <t>安顺市</t>
+  </si>
+  <si>
+    <t>毕节市</t>
+  </si>
+  <si>
+    <t>铜仁市</t>
+  </si>
+  <si>
+    <t>黔西南布依族苗族自治州</t>
+  </si>
+  <si>
+    <t>黔东南苗族侗族自治州</t>
+  </si>
+  <si>
+    <t>黔南布依族苗族自治州</t>
+  </si>
+  <si>
+    <t>昆明市</t>
+  </si>
+  <si>
+    <t>曲靖市</t>
+  </si>
+  <si>
+    <t>玉溪市</t>
+  </si>
+  <si>
+    <t>保山市</t>
+  </si>
+  <si>
+    <t>昭通市</t>
+  </si>
+  <si>
+    <t>丽江市</t>
+  </si>
+  <si>
+    <t>普洱市</t>
+  </si>
+  <si>
+    <t>临沧市</t>
+  </si>
+  <si>
+    <t>楚雄彝族自治州</t>
+  </si>
+  <si>
+    <t>红河哈尼族彝族自治州</t>
+  </si>
+  <si>
+    <t>文山壮族苗族自治州</t>
+  </si>
+  <si>
+    <t>西双版纳傣族自治州</t>
+  </si>
+  <si>
+    <t>大理白族自治州</t>
+  </si>
+  <si>
+    <t>德宏傣族景颇族自治州</t>
+  </si>
+  <si>
+    <t>怒江傈僳族自治州</t>
+  </si>
+  <si>
+    <t>迪庆藏族自治州</t>
+  </si>
+  <si>
+    <t>拉萨市</t>
+  </si>
+  <si>
+    <t>日喀则市</t>
+  </si>
+  <si>
+    <t>昌都市</t>
+  </si>
+  <si>
+    <t>林芝市</t>
+  </si>
+  <si>
+    <t>山南市</t>
+  </si>
+  <si>
+    <t>那曲市</t>
+  </si>
+  <si>
+    <t>阿里地区</t>
+  </si>
+  <si>
+    <t>西安市</t>
+  </si>
+  <si>
+    <t>铜川市</t>
+  </si>
+  <si>
+    <t>宝鸡市</t>
+  </si>
+  <si>
+    <t>咸阳市</t>
+  </si>
+  <si>
+    <t>渭南市</t>
+  </si>
+  <si>
+    <t>延安市</t>
+  </si>
+  <si>
+    <t>汉中市</t>
+  </si>
+  <si>
+    <t>榆林市</t>
+  </si>
+  <si>
+    <t>安康市</t>
+  </si>
+  <si>
+    <t>商洛市</t>
+  </si>
+  <si>
+    <t>兰州市</t>
+  </si>
+  <si>
+    <t>嘉峪关市</t>
+  </si>
+  <si>
+    <t>金昌市</t>
+  </si>
+  <si>
+    <t>白银市</t>
+  </si>
+  <si>
+    <t>天水市</t>
+  </si>
+  <si>
+    <t>武威市</t>
+  </si>
+  <si>
+    <t>张掖市</t>
+  </si>
+  <si>
+    <t>平凉市</t>
+  </si>
+  <si>
+    <t>酒泉市</t>
+  </si>
+  <si>
+    <t>庆阳市</t>
+  </si>
+  <si>
+    <t>定西市</t>
+  </si>
+  <si>
+    <t>陇南市</t>
+  </si>
+  <si>
+    <t>临夏回族自治州</t>
+  </si>
+  <si>
+    <t>甘南藏族自治州</t>
+  </si>
+  <si>
+    <t>西宁市</t>
+  </si>
+  <si>
+    <t>海东市</t>
+  </si>
+  <si>
+    <t>海北藏族自治州</t>
+  </si>
+  <si>
+    <t>黄南藏族自治州</t>
+  </si>
+  <si>
+    <t>海南藏族自治州</t>
+  </si>
+  <si>
+    <t>果洛藏族自治州</t>
+  </si>
+  <si>
+    <t>玉树藏族自治州</t>
+  </si>
+  <si>
+    <t>海西蒙古族藏族自治州</t>
+  </si>
+  <si>
+    <t>银川市</t>
+  </si>
+  <si>
+    <t>石嘴山市</t>
+  </si>
+  <si>
+    <t>吴忠市</t>
+  </si>
+  <si>
+    <t>固原市</t>
+  </si>
+  <si>
+    <t>中卫市</t>
+  </si>
+  <si>
+    <t>乌鲁木齐市</t>
+  </si>
+  <si>
+    <t>克拉玛依市</t>
+  </si>
+  <si>
+    <t>吐鲁番市</t>
+  </si>
+  <si>
+    <t>哈密市</t>
+  </si>
+  <si>
+    <t>昌吉回族自治州</t>
+  </si>
+  <si>
+    <t>博尔塔拉蒙古自治州</t>
+  </si>
+  <si>
+    <t>阿克苏地区</t>
+  </si>
+  <si>
+    <t>克孜勒苏柯尔克孜自治州</t>
+  </si>
+  <si>
+    <t>喀什地区</t>
+  </si>
+  <si>
+    <t>和田地区</t>
+  </si>
+  <si>
+    <t>伊犁哈萨克自治州</t>
+  </si>
+  <si>
+    <t>塔城地区</t>
+  </si>
+  <si>
+    <t>阿勒泰地区</t>
   </si>
 </sst>
 </file>
@@ -9941,8 +10946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -51742,11 +52747,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E8DFD6-1578-4DCD-8D92-E5B44DCFA3CB}">
   <dimension ref="A1:C2847"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -83075,8 +84084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7058EC3-8936-4419-9895-DD411765FD8B}">
   <dimension ref="A1:C334"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -83097,7 +84106,7 @@
         <v>130100</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>3178</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -83108,7 +84117,7 @@
         <v>130200</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>3179</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -83119,7 +84128,7 @@
         <v>130300</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>3180</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -83130,7 +84139,7 @@
         <v>130400</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>3181</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -83141,7 +84150,7 @@
         <v>130500</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>3182</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -83152,7 +84161,7 @@
         <v>130600</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>3184</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -83163,7 +84172,7 @@
         <v>130700</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>3185</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -83174,7 +84183,7 @@
         <v>130800</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>3186</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -83185,7 +84194,7 @@
         <v>130900</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>3187</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -83196,7 +84205,7 @@
         <v>131000</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>3188</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -83207,7 +84216,7 @@
         <v>131100</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>3189</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -83218,7 +84227,7 @@
         <v>140100</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>3190</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -83229,7 +84238,7 @@
         <v>140200</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>3191</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -83240,7 +84249,7 @@
         <v>140300</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>17</v>
+        <v>3192</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
@@ -83251,7 +84260,7 @@
         <v>140400</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>3193</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
@@ -83262,7 +84271,7 @@
         <v>140500</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>3194</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -83273,7 +84282,7 @@
         <v>140600</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>3195</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -83284,7 +84293,7 @@
         <v>140700</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>3196</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -83295,7 +84304,7 @@
         <v>140800</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>22</v>
+        <v>3197</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -83306,7 +84315,7 @@
         <v>140900</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>3198</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -83317,7 +84326,7 @@
         <v>141000</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>3199</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -83328,7 +84337,7 @@
         <v>141100</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>25</v>
+        <v>3200</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
@@ -83339,7 +84348,7 @@
         <v>150100</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>3201</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
@@ -83350,7 +84359,7 @@
         <v>150200</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>3202</v>
       </c>
       <c r="C25" s="2">
         <v>2</v>
@@ -83361,7 +84370,7 @@
         <v>150300</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>3203</v>
       </c>
       <c r="C26" s="2">
         <v>2</v>
@@ -83372,7 +84381,7 @@
         <v>150400</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>3204</v>
       </c>
       <c r="C27" s="2">
         <v>2</v>
@@ -83383,7 +84392,7 @@
         <v>150500</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>31</v>
+        <v>3205</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
@@ -83394,7 +84403,7 @@
         <v>150600</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>32</v>
+        <v>3206</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
@@ -83405,7 +84414,7 @@
         <v>150700</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>33</v>
+        <v>3207</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
@@ -83416,7 +84425,7 @@
         <v>150800</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>3208</v>
       </c>
       <c r="C31" s="2">
         <v>2</v>
@@ -83427,7 +84436,7 @@
         <v>150900</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>3209</v>
       </c>
       <c r="C32" s="2">
         <v>2</v>
@@ -83438,7 +84447,7 @@
         <v>152200</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>36</v>
+        <v>3210</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -83449,7 +84458,7 @@
         <v>152500</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>37</v>
+        <v>3211</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
@@ -83460,7 +84469,7 @@
         <v>152900</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>38</v>
+        <v>3212</v>
       </c>
       <c r="C35" s="2">
         <v>2</v>
@@ -83471,7 +84480,7 @@
         <v>210100</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>40</v>
+        <v>3213</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -83482,7 +84491,7 @@
         <v>210200</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>41</v>
+        <v>3214</v>
       </c>
       <c r="C37" s="2">
         <v>2</v>
@@ -83493,7 +84502,7 @@
         <v>210300</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>42</v>
+        <v>3215</v>
       </c>
       <c r="C38" s="2">
         <v>2</v>
@@ -83504,7 +84513,7 @@
         <v>210400</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>43</v>
+        <v>3216</v>
       </c>
       <c r="C39" s="2">
         <v>2</v>
@@ -83515,7 +84524,7 @@
         <v>210500</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>44</v>
+        <v>3217</v>
       </c>
       <c r="C40" s="2">
         <v>2</v>
@@ -83526,7 +84535,7 @@
         <v>210600</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>45</v>
+        <v>3218</v>
       </c>
       <c r="C41" s="2">
         <v>2</v>
@@ -83537,7 +84546,7 @@
         <v>210700</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>46</v>
+        <v>3219</v>
       </c>
       <c r="C42" s="2">
         <v>2</v>
@@ -83548,7 +84557,7 @@
         <v>210800</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>47</v>
+        <v>3220</v>
       </c>
       <c r="C43" s="2">
         <v>2</v>
@@ -83559,7 +84568,7 @@
         <v>210900</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>3221</v>
       </c>
       <c r="C44" s="2">
         <v>2</v>
@@ -83570,7 +84579,7 @@
         <v>211000</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>49</v>
+        <v>3222</v>
       </c>
       <c r="C45" s="2">
         <v>2</v>
@@ -83581,7 +84590,7 @@
         <v>211100</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>50</v>
+        <v>3223</v>
       </c>
       <c r="C46" s="2">
         <v>2</v>
@@ -83592,7 +84601,7 @@
         <v>211200</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>51</v>
+        <v>3224</v>
       </c>
       <c r="C47" s="2">
         <v>2</v>
@@ -83603,7 +84612,7 @@
         <v>211300</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>52</v>
+        <v>3225</v>
       </c>
       <c r="C48" s="2">
         <v>2</v>
@@ -83614,7 +84623,7 @@
         <v>211400</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>53</v>
+        <v>3226</v>
       </c>
       <c r="C49" s="2">
         <v>2</v>
@@ -83625,7 +84634,7 @@
         <v>220100</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>55</v>
+        <v>3227</v>
       </c>
       <c r="C50" s="2">
         <v>2</v>
@@ -83636,7 +84645,7 @@
         <v>220200</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>56</v>
+        <v>3228</v>
       </c>
       <c r="C51" s="2">
         <v>2</v>
@@ -83647,7 +84656,7 @@
         <v>220300</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>57</v>
+        <v>3229</v>
       </c>
       <c r="C52" s="2">
         <v>2</v>
@@ -83658,7 +84667,7 @@
         <v>220400</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>58</v>
+        <v>3230</v>
       </c>
       <c r="C53" s="2">
         <v>2</v>
@@ -83669,7 +84678,7 @@
         <v>220500</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>59</v>
+        <v>3231</v>
       </c>
       <c r="C54" s="2">
         <v>2</v>
@@ -83680,7 +84689,7 @@
         <v>220600</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>60</v>
+        <v>3232</v>
       </c>
       <c r="C55" s="2">
         <v>2</v>
@@ -83691,7 +84700,7 @@
         <v>220700</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>61</v>
+        <v>3233</v>
       </c>
       <c r="C56" s="2">
         <v>2</v>
@@ -83702,7 +84711,7 @@
         <v>220800</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>62</v>
+        <v>3234</v>
       </c>
       <c r="C57" s="2">
         <v>2</v>
@@ -83713,7 +84722,7 @@
         <v>222400</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>63</v>
+        <v>3235</v>
       </c>
       <c r="C58" s="2">
         <v>2</v>
@@ -83724,7 +84733,7 @@
         <v>230100</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>65</v>
+        <v>3236</v>
       </c>
       <c r="C59" s="2">
         <v>2</v>
@@ -83735,7 +84744,7 @@
         <v>230200</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>66</v>
+        <v>3237</v>
       </c>
       <c r="C60" s="2">
         <v>2</v>
@@ -83746,7 +84755,7 @@
         <v>230300</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>67</v>
+        <v>3238</v>
       </c>
       <c r="C61" s="2">
         <v>2</v>
@@ -83757,7 +84766,7 @@
         <v>230400</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>68</v>
+        <v>3239</v>
       </c>
       <c r="C62" s="2">
         <v>2</v>
@@ -83768,7 +84777,7 @@
         <v>230500</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>69</v>
+        <v>3240</v>
       </c>
       <c r="C63" s="2">
         <v>2</v>
@@ -83779,7 +84788,7 @@
         <v>230600</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>70</v>
+        <v>3241</v>
       </c>
       <c r="C64" s="2">
         <v>2</v>
@@ -83790,7 +84799,7 @@
         <v>230700</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>71</v>
+        <v>3242</v>
       </c>
       <c r="C65" s="2">
         <v>2</v>
@@ -83801,7 +84810,7 @@
         <v>230800</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>72</v>
+        <v>3243</v>
       </c>
       <c r="C66" s="2">
         <v>2</v>
@@ -83812,7 +84821,7 @@
         <v>230900</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>73</v>
+        <v>3244</v>
       </c>
       <c r="C67" s="2">
         <v>2</v>
@@ -83823,7 +84832,7 @@
         <v>231000</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>74</v>
+        <v>3245</v>
       </c>
       <c r="C68" s="2">
         <v>2</v>
@@ -83834,7 +84843,7 @@
         <v>231100</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>75</v>
+        <v>3246</v>
       </c>
       <c r="C69" s="2">
         <v>2</v>
@@ -83845,7 +84854,7 @@
         <v>231200</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>76</v>
+        <v>3247</v>
       </c>
       <c r="C70" s="2">
         <v>2</v>
@@ -83856,7 +84865,7 @@
         <v>232700</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>77</v>
+        <v>3248</v>
       </c>
       <c r="C71" s="2">
         <v>2</v>
@@ -83867,7 +84876,7 @@
         <v>320100</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>80</v>
+        <v>3249</v>
       </c>
       <c r="C72" s="2">
         <v>2</v>
@@ -83878,7 +84887,7 @@
         <v>320200</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>81</v>
+        <v>3250</v>
       </c>
       <c r="C73" s="2">
         <v>2</v>
@@ -83889,7 +84898,7 @@
         <v>320300</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>82</v>
+        <v>3251</v>
       </c>
       <c r="C74" s="2">
         <v>2</v>
@@ -83900,7 +84909,7 @@
         <v>320400</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>83</v>
+        <v>3252</v>
       </c>
       <c r="C75" s="2">
         <v>2</v>
@@ -83911,7 +84920,7 @@
         <v>320500</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>84</v>
+        <v>3253</v>
       </c>
       <c r="C76" s="2">
         <v>2</v>
@@ -83922,7 +84931,7 @@
         <v>320600</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>85</v>
+        <v>3254</v>
       </c>
       <c r="C77" s="2">
         <v>2</v>
@@ -83933,7 +84942,7 @@
         <v>320700</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>86</v>
+        <v>3255</v>
       </c>
       <c r="C78" s="2">
         <v>2</v>
@@ -83944,7 +84953,7 @@
         <v>320800</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>87</v>
+        <v>3256</v>
       </c>
       <c r="C79" s="2">
         <v>2</v>
@@ -83955,7 +84964,7 @@
         <v>320900</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>88</v>
+        <v>3257</v>
       </c>
       <c r="C80" s="2">
         <v>2</v>
@@ -83966,7 +84975,7 @@
         <v>321000</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>89</v>
+        <v>3258</v>
       </c>
       <c r="C81" s="2">
         <v>2</v>
@@ -83977,7 +84986,7 @@
         <v>321100</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>90</v>
+        <v>3259</v>
       </c>
       <c r="C82" s="2">
         <v>2</v>
@@ -83988,7 +84997,7 @@
         <v>321200</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>91</v>
+        <v>3260</v>
       </c>
       <c r="C83" s="2">
         <v>2</v>
@@ -83999,7 +85008,7 @@
         <v>321300</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>92</v>
+        <v>3261</v>
       </c>
       <c r="C84" s="2">
         <v>2</v>
@@ -84010,7 +85019,7 @@
         <v>330100</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>94</v>
+        <v>3262</v>
       </c>
       <c r="C85" s="2">
         <v>2</v>
@@ -84021,7 +85030,7 @@
         <v>330200</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>95</v>
+        <v>3263</v>
       </c>
       <c r="C86" s="2">
         <v>2</v>
@@ -84032,7 +85041,7 @@
         <v>330300</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>96</v>
+        <v>3264</v>
       </c>
       <c r="C87" s="2">
         <v>2</v>
@@ -84043,7 +85052,7 @@
         <v>330400</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>97</v>
+        <v>3265</v>
       </c>
       <c r="C88" s="2">
         <v>2</v>
@@ -84054,7 +85063,7 @@
         <v>330500</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>98</v>
+        <v>3266</v>
       </c>
       <c r="C89" s="2">
         <v>2</v>
@@ -84065,7 +85074,7 @@
         <v>330600</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>99</v>
+        <v>3267</v>
       </c>
       <c r="C90" s="2">
         <v>2</v>
@@ -84076,7 +85085,7 @@
         <v>330700</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>100</v>
+        <v>3268</v>
       </c>
       <c r="C91" s="2">
         <v>2</v>
@@ -84087,7 +85096,7 @@
         <v>330800</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>101</v>
+        <v>3269</v>
       </c>
       <c r="C92" s="2">
         <v>2</v>
@@ -84098,7 +85107,7 @@
         <v>330900</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>102</v>
+        <v>3270</v>
       </c>
       <c r="C93" s="2">
         <v>2</v>
@@ -84109,7 +85118,7 @@
         <v>331000</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>103</v>
+        <v>3271</v>
       </c>
       <c r="C94" s="2">
         <v>2</v>
@@ -84120,7 +85129,7 @@
         <v>331100</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>104</v>
+        <v>3272</v>
       </c>
       <c r="C95" s="2">
         <v>2</v>
@@ -84131,7 +85140,7 @@
         <v>340100</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>106</v>
+        <v>3273</v>
       </c>
       <c r="C96" s="2">
         <v>2</v>
@@ -84142,7 +85151,7 @@
         <v>340200</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>107</v>
+        <v>3274</v>
       </c>
       <c r="C97" s="2">
         <v>2</v>
@@ -84153,7 +85162,7 @@
         <v>340300</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>108</v>
+        <v>3275</v>
       </c>
       <c r="C98" s="2">
         <v>2</v>
@@ -84164,7 +85173,7 @@
         <v>340400</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>109</v>
+        <v>3276</v>
       </c>
       <c r="C99" s="2">
         <v>2</v>
@@ -84175,7 +85184,7 @@
         <v>340500</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>110</v>
+        <v>3277</v>
       </c>
       <c r="C100" s="2">
         <v>2</v>
@@ -84186,7 +85195,7 @@
         <v>340600</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>111</v>
+        <v>3278</v>
       </c>
       <c r="C101" s="2">
         <v>2</v>
@@ -84197,7 +85206,7 @@
         <v>340700</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>112</v>
+        <v>3279</v>
       </c>
       <c r="C102" s="2">
         <v>2</v>
@@ -84208,7 +85217,7 @@
         <v>340800</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>113</v>
+        <v>3280</v>
       </c>
       <c r="C103" s="2">
         <v>2</v>
@@ -84219,7 +85228,7 @@
         <v>341000</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>114</v>
+        <v>3281</v>
       </c>
       <c r="C104" s="2">
         <v>2</v>
@@ -84230,7 +85239,7 @@
         <v>341100</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>115</v>
+        <v>3282</v>
       </c>
       <c r="C105" s="2">
         <v>2</v>
@@ -84241,7 +85250,7 @@
         <v>341200</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>116</v>
+        <v>3283</v>
       </c>
       <c r="C106" s="2">
         <v>2</v>
@@ -84252,7 +85261,7 @@
         <v>341300</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>117</v>
+        <v>3284</v>
       </c>
       <c r="C107" s="2">
         <v>2</v>
@@ -84263,7 +85272,7 @@
         <v>341500</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>118</v>
+        <v>3285</v>
       </c>
       <c r="C108" s="2">
         <v>2</v>
@@ -84274,7 +85283,7 @@
         <v>341600</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>119</v>
+        <v>3286</v>
       </c>
       <c r="C109" s="2">
         <v>2</v>
@@ -84285,7 +85294,7 @@
         <v>341700</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>120</v>
+        <v>3287</v>
       </c>
       <c r="C110" s="2">
         <v>2</v>
@@ -84296,7 +85305,7 @@
         <v>341800</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>121</v>
+        <v>3288</v>
       </c>
       <c r="C111" s="2">
         <v>2</v>
@@ -84307,7 +85316,7 @@
         <v>350100</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>123</v>
+        <v>3289</v>
       </c>
       <c r="C112" s="2">
         <v>2</v>
@@ -84318,7 +85327,7 @@
         <v>350200</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>124</v>
+        <v>3290</v>
       </c>
       <c r="C113" s="2">
         <v>2</v>
@@ -84329,7 +85338,7 @@
         <v>350300</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>125</v>
+        <v>3291</v>
       </c>
       <c r="C114" s="2">
         <v>2</v>
@@ -84340,7 +85349,7 @@
         <v>350400</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>126</v>
+        <v>3292</v>
       </c>
       <c r="C115" s="2">
         <v>2</v>
@@ -84351,7 +85360,7 @@
         <v>350500</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>127</v>
+        <v>3293</v>
       </c>
       <c r="C116" s="2">
         <v>2</v>
@@ -84362,7 +85371,7 @@
         <v>350600</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>128</v>
+        <v>3294</v>
       </c>
       <c r="C117" s="2">
         <v>2</v>
@@ -84373,7 +85382,7 @@
         <v>350700</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>129</v>
+        <v>3295</v>
       </c>
       <c r="C118" s="2">
         <v>2</v>
@@ -84384,7 +85393,7 @@
         <v>350800</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>130</v>
+        <v>3296</v>
       </c>
       <c r="C119" s="2">
         <v>2</v>
@@ -84395,7 +85404,7 @@
         <v>350900</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>131</v>
+        <v>3297</v>
       </c>
       <c r="C120" s="2">
         <v>2</v>
@@ -84406,7 +85415,7 @@
         <v>360100</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>133</v>
+        <v>3298</v>
       </c>
       <c r="C121" s="2">
         <v>2</v>
@@ -84417,7 +85426,7 @@
         <v>360200</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>134</v>
+        <v>3299</v>
       </c>
       <c r="C122" s="2">
         <v>2</v>
@@ -84428,7 +85437,7 @@
         <v>360300</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>135</v>
+        <v>3300</v>
       </c>
       <c r="C123" s="2">
         <v>2</v>
@@ -84439,7 +85448,7 @@
         <v>360400</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>136</v>
+        <v>3301</v>
       </c>
       <c r="C124" s="2">
         <v>2</v>
@@ -84450,7 +85459,7 @@
         <v>360500</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>137</v>
+        <v>3302</v>
       </c>
       <c r="C125" s="2">
         <v>2</v>
@@ -84461,7 +85470,7 @@
         <v>360600</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>138</v>
+        <v>3303</v>
       </c>
       <c r="C126" s="2">
         <v>2</v>
@@ -84472,7 +85481,7 @@
         <v>360700</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>139</v>
+        <v>3304</v>
       </c>
       <c r="C127" s="2">
         <v>2</v>
@@ -84483,7 +85492,7 @@
         <v>360800</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>140</v>
+        <v>3305</v>
       </c>
       <c r="C128" s="2">
         <v>2</v>
@@ -84494,7 +85503,7 @@
         <v>360900</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>141</v>
+        <v>3306</v>
       </c>
       <c r="C129" s="2">
         <v>2</v>
@@ -84505,7 +85514,7 @@
         <v>361000</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>142</v>
+        <v>3307</v>
       </c>
       <c r="C130" s="2">
         <v>2</v>
@@ -84516,7 +85525,7 @@
         <v>361100</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>143</v>
+        <v>3308</v>
       </c>
       <c r="C131" s="2">
         <v>2</v>
@@ -84527,7 +85536,7 @@
         <v>370100</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>145</v>
+        <v>3309</v>
       </c>
       <c r="C132" s="2">
         <v>2</v>
@@ -84538,7 +85547,7 @@
         <v>370200</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>146</v>
+        <v>3310</v>
       </c>
       <c r="C133" s="2">
         <v>2</v>
@@ -84549,7 +85558,7 @@
         <v>370300</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>147</v>
+        <v>3311</v>
       </c>
       <c r="C134" s="2">
         <v>2</v>
@@ -84560,7 +85569,7 @@
         <v>370400</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>148</v>
+        <v>3312</v>
       </c>
       <c r="C135" s="2">
         <v>2</v>
@@ -84571,7 +85580,7 @@
         <v>370500</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>149</v>
+        <v>3313</v>
       </c>
       <c r="C136" s="2">
         <v>2</v>
@@ -84582,7 +85591,7 @@
         <v>370600</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>150</v>
+        <v>3314</v>
       </c>
       <c r="C137" s="2">
         <v>2</v>
@@ -84593,7 +85602,7 @@
         <v>370700</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>151</v>
+        <v>3315</v>
       </c>
       <c r="C138" s="2">
         <v>2</v>
@@ -84604,7 +85613,7 @@
         <v>370800</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>152</v>
+        <v>3316</v>
       </c>
       <c r="C139" s="2">
         <v>2</v>
@@ -84615,7 +85624,7 @@
         <v>370900</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>153</v>
+        <v>3317</v>
       </c>
       <c r="C140" s="2">
         <v>2</v>
@@ -84626,7 +85635,7 @@
         <v>371000</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>154</v>
+        <v>3318</v>
       </c>
       <c r="C141" s="2">
         <v>2</v>
@@ -84637,7 +85646,7 @@
         <v>371100</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>155</v>
+        <v>3319</v>
       </c>
       <c r="C142" s="2">
         <v>2</v>
@@ -84648,7 +85657,7 @@
         <v>371300</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>156</v>
+        <v>3320</v>
       </c>
       <c r="C143" s="2">
         <v>2</v>
@@ -84659,7 +85668,7 @@
         <v>371400</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>157</v>
+        <v>3321</v>
       </c>
       <c r="C144" s="2">
         <v>2</v>
@@ -84670,7 +85679,7 @@
         <v>371500</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>158</v>
+        <v>3322</v>
       </c>
       <c r="C145" s="2">
         <v>2</v>
@@ -84681,7 +85690,7 @@
         <v>371600</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>159</v>
+        <v>3323</v>
       </c>
       <c r="C146" s="2">
         <v>2</v>
@@ -84692,7 +85701,7 @@
         <v>371700</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>160</v>
+        <v>3324</v>
       </c>
       <c r="C147" s="2">
         <v>2</v>
@@ -84703,7 +85712,7 @@
         <v>410100</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>162</v>
+        <v>3325</v>
       </c>
       <c r="C148" s="2">
         <v>2</v>
@@ -84714,7 +85723,7 @@
         <v>410200</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>163</v>
+        <v>3326</v>
       </c>
       <c r="C149" s="2">
         <v>2</v>
@@ -84725,7 +85734,7 @@
         <v>410300</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>164</v>
+        <v>3327</v>
       </c>
       <c r="C150" s="2">
         <v>2</v>
@@ -84736,7 +85745,7 @@
         <v>410400</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>165</v>
+        <v>3328</v>
       </c>
       <c r="C151" s="2">
         <v>2</v>
@@ -84747,7 +85756,7 @@
         <v>410500</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>166</v>
+        <v>3329</v>
       </c>
       <c r="C152" s="2">
         <v>2</v>
@@ -84758,7 +85767,7 @@
         <v>410600</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>167</v>
+        <v>3330</v>
       </c>
       <c r="C153" s="2">
         <v>2</v>
@@ -84769,7 +85778,7 @@
         <v>410700</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>168</v>
+        <v>3331</v>
       </c>
       <c r="C154" s="2">
         <v>2</v>
@@ -84780,7 +85789,7 @@
         <v>410800</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>169</v>
+        <v>3332</v>
       </c>
       <c r="C155" s="2">
         <v>2</v>
@@ -84791,7 +85800,7 @@
         <v>410900</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>170</v>
+        <v>3333</v>
       </c>
       <c r="C156" s="2">
         <v>2</v>
@@ -84802,7 +85811,7 @@
         <v>411000</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>171</v>
+        <v>3334</v>
       </c>
       <c r="C157" s="2">
         <v>2</v>
@@ -84813,7 +85822,7 @@
         <v>411100</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>172</v>
+        <v>3335</v>
       </c>
       <c r="C158" s="2">
         <v>2</v>
@@ -84824,7 +85833,7 @@
         <v>411200</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>173</v>
+        <v>3336</v>
       </c>
       <c r="C159" s="2">
         <v>2</v>
@@ -84835,7 +85844,7 @@
         <v>411300</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>174</v>
+        <v>3337</v>
       </c>
       <c r="C160" s="2">
         <v>2</v>
@@ -84846,7 +85855,7 @@
         <v>411400</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>175</v>
+        <v>3338</v>
       </c>
       <c r="C161" s="2">
         <v>2</v>
@@ -84857,7 +85866,7 @@
         <v>411500</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>176</v>
+        <v>3339</v>
       </c>
       <c r="C162" s="2">
         <v>2</v>
@@ -84868,7 +85877,7 @@
         <v>411600</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>177</v>
+        <v>3340</v>
       </c>
       <c r="C163" s="2">
         <v>2</v>
@@ -84879,7 +85888,7 @@
         <v>411700</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>178</v>
+        <v>3341</v>
       </c>
       <c r="C164" s="2">
         <v>2</v>
@@ -84890,7 +85899,7 @@
         <v>420100</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>180</v>
+        <v>3342</v>
       </c>
       <c r="C165" s="2">
         <v>2</v>
@@ -84901,7 +85910,7 @@
         <v>420200</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>181</v>
+        <v>3343</v>
       </c>
       <c r="C166" s="2">
         <v>2</v>
@@ -84912,7 +85921,7 @@
         <v>420300</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>182</v>
+        <v>3344</v>
       </c>
       <c r="C167" s="2">
         <v>2</v>
@@ -84923,7 +85932,7 @@
         <v>420500</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>183</v>
+        <v>3345</v>
       </c>
       <c r="C168" s="2">
         <v>2</v>
@@ -84934,7 +85943,7 @@
         <v>420600</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>184</v>
+        <v>3346</v>
       </c>
       <c r="C169" s="2">
         <v>2</v>
@@ -84945,7 +85954,7 @@
         <v>420700</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>185</v>
+        <v>3347</v>
       </c>
       <c r="C170" s="2">
         <v>2</v>
@@ -84956,7 +85965,7 @@
         <v>420800</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>186</v>
+        <v>3348</v>
       </c>
       <c r="C171" s="2">
         <v>2</v>
@@ -84967,7 +85976,7 @@
         <v>420900</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>187</v>
+        <v>3349</v>
       </c>
       <c r="C172" s="2">
         <v>2</v>
@@ -84978,7 +85987,7 @@
         <v>421000</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>188</v>
+        <v>3350</v>
       </c>
       <c r="C173" s="2">
         <v>2</v>
@@ -84989,7 +85998,7 @@
         <v>421100</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>189</v>
+        <v>3351</v>
       </c>
       <c r="C174" s="2">
         <v>2</v>
@@ -85000,7 +86009,7 @@
         <v>421200</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>190</v>
+        <v>3352</v>
       </c>
       <c r="C175" s="2">
         <v>2</v>
@@ -85011,7 +86020,7 @@
         <v>421300</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>191</v>
+        <v>3353</v>
       </c>
       <c r="C176" s="2">
         <v>2</v>
@@ -85022,7 +86031,7 @@
         <v>422800</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>192</v>
+        <v>3354</v>
       </c>
       <c r="C177" s="2">
         <v>2</v>
@@ -85033,7 +86042,7 @@
         <v>430100</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>194</v>
+        <v>3355</v>
       </c>
       <c r="C178" s="2">
         <v>2</v>
@@ -85044,7 +86053,7 @@
         <v>430200</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>195</v>
+        <v>3356</v>
       </c>
       <c r="C179" s="2">
         <v>2</v>
@@ -85055,7 +86064,7 @@
         <v>430300</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>196</v>
+        <v>3357</v>
       </c>
       <c r="C180" s="2">
         <v>2</v>
@@ -85066,7 +86075,7 @@
         <v>430400</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>197</v>
+        <v>3358</v>
       </c>
       <c r="C181" s="2">
         <v>2</v>
@@ -85077,7 +86086,7 @@
         <v>430500</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>198</v>
+        <v>3359</v>
       </c>
       <c r="C182" s="2">
         <v>2</v>
@@ -85088,7 +86097,7 @@
         <v>430600</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>199</v>
+        <v>3360</v>
       </c>
       <c r="C183" s="2">
         <v>2</v>
@@ -85099,7 +86108,7 @@
         <v>430700</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>200</v>
+        <v>3361</v>
       </c>
       <c r="C184" s="2">
         <v>2</v>
@@ -85110,7 +86119,7 @@
         <v>430800</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>201</v>
+        <v>3362</v>
       </c>
       <c r="C185" s="2">
         <v>2</v>
@@ -85121,7 +86130,7 @@
         <v>430900</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>202</v>
+        <v>3363</v>
       </c>
       <c r="C186" s="2">
         <v>2</v>
@@ -85132,7 +86141,7 @@
         <v>431000</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>203</v>
+        <v>3364</v>
       </c>
       <c r="C187" s="2">
         <v>2</v>
@@ -85143,7 +86152,7 @@
         <v>431100</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>204</v>
+        <v>3365</v>
       </c>
       <c r="C188" s="2">
         <v>2</v>
@@ -85154,7 +86163,7 @@
         <v>431200</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>205</v>
+        <v>3366</v>
       </c>
       <c r="C189" s="2">
         <v>2</v>
@@ -85165,7 +86174,7 @@
         <v>431300</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>206</v>
+        <v>3367</v>
       </c>
       <c r="C190" s="2">
         <v>2</v>
@@ -85176,7 +86185,7 @@
         <v>433100</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>207</v>
+        <v>3368</v>
       </c>
       <c r="C191" s="2">
         <v>2</v>
@@ -85187,7 +86196,7 @@
         <v>440100</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>209</v>
+        <v>3369</v>
       </c>
       <c r="C192" s="2">
         <v>2</v>
@@ -85198,7 +86207,7 @@
         <v>440200</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>210</v>
+        <v>3370</v>
       </c>
       <c r="C193" s="2">
         <v>2</v>
@@ -85209,7 +86218,7 @@
         <v>440300</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>211</v>
+        <v>3371</v>
       </c>
       <c r="C194" s="2">
         <v>2</v>
@@ -85220,7 +86229,7 @@
         <v>440400</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>212</v>
+        <v>3372</v>
       </c>
       <c r="C195" s="2">
         <v>2</v>
@@ -85231,7 +86240,7 @@
         <v>440500</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>213</v>
+        <v>3373</v>
       </c>
       <c r="C196" s="2">
         <v>2</v>
@@ -85242,7 +86251,7 @@
         <v>440600</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>214</v>
+        <v>3374</v>
       </c>
       <c r="C197" s="2">
         <v>2</v>
@@ -85253,7 +86262,7 @@
         <v>440700</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>215</v>
+        <v>3375</v>
       </c>
       <c r="C198" s="2">
         <v>2</v>
@@ -85264,7 +86273,7 @@
         <v>440800</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>216</v>
+        <v>3376</v>
       </c>
       <c r="C199" s="2">
         <v>2</v>
@@ -85275,7 +86284,7 @@
         <v>440900</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>217</v>
+        <v>3377</v>
       </c>
       <c r="C200" s="2">
         <v>2</v>
@@ -85286,7 +86295,7 @@
         <v>441200</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>218</v>
+        <v>3378</v>
       </c>
       <c r="C201" s="2">
         <v>2</v>
@@ -85297,7 +86306,7 @@
         <v>441300</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>219</v>
+        <v>3379</v>
       </c>
       <c r="C202" s="2">
         <v>2</v>
@@ -85308,7 +86317,7 @@
         <v>441400</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>220</v>
+        <v>3380</v>
       </c>
       <c r="C203" s="2">
         <v>2</v>
@@ -85319,7 +86328,7 @@
         <v>441500</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>221</v>
+        <v>3381</v>
       </c>
       <c r="C204" s="2">
         <v>2</v>
@@ -85330,7 +86339,7 @@
         <v>441600</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>222</v>
+        <v>3382</v>
       </c>
       <c r="C205" s="2">
         <v>2</v>
@@ -85341,7 +86350,7 @@
         <v>441700</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>223</v>
+        <v>3383</v>
       </c>
       <c r="C206" s="2">
         <v>2</v>
@@ -85352,7 +86361,7 @@
         <v>441800</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>224</v>
+        <v>3384</v>
       </c>
       <c r="C207" s="2">
         <v>2</v>
@@ -85363,7 +86372,7 @@
         <v>441900</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>225</v>
+        <v>3385</v>
       </c>
       <c r="C208" s="2">
         <v>2</v>
@@ -85374,7 +86383,7 @@
         <v>442000</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>226</v>
+        <v>3386</v>
       </c>
       <c r="C209" s="2">
         <v>2</v>
@@ -85385,7 +86394,7 @@
         <v>445100</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>227</v>
+        <v>3387</v>
       </c>
       <c r="C210" s="2">
         <v>2</v>
@@ -85396,7 +86405,7 @@
         <v>445200</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>228</v>
+        <v>3388</v>
       </c>
       <c r="C211" s="2">
         <v>2</v>
@@ -85407,7 +86416,7 @@
         <v>445300</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>229</v>
+        <v>3389</v>
       </c>
       <c r="C212" s="2">
         <v>2</v>
@@ -85418,7 +86427,7 @@
         <v>450100</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>231</v>
+        <v>3390</v>
       </c>
       <c r="C213" s="2">
         <v>2</v>
@@ -85429,7 +86438,7 @@
         <v>450200</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>232</v>
+        <v>3391</v>
       </c>
       <c r="C214" s="2">
         <v>2</v>
@@ -85440,7 +86449,7 @@
         <v>450300</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>233</v>
+        <v>3392</v>
       </c>
       <c r="C215" s="2">
         <v>2</v>
@@ -85451,7 +86460,7 @@
         <v>450400</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>234</v>
+        <v>3393</v>
       </c>
       <c r="C216" s="2">
         <v>2</v>
@@ -85462,7 +86471,7 @@
         <v>450500</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>235</v>
+        <v>3394</v>
       </c>
       <c r="C217" s="2">
         <v>2</v>
@@ -85473,7 +86482,7 @@
         <v>450600</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>236</v>
+        <v>3395</v>
       </c>
       <c r="C218" s="2">
         <v>2</v>
@@ -85484,7 +86493,7 @@
         <v>450700</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>237</v>
+        <v>3396</v>
       </c>
       <c r="C219" s="2">
         <v>2</v>
@@ -85495,7 +86504,7 @@
         <v>450800</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>238</v>
+        <v>3397</v>
       </c>
       <c r="C220" s="2">
         <v>2</v>
@@ -85506,7 +86515,7 @@
         <v>450900</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>239</v>
+        <v>3398</v>
       </c>
       <c r="C221" s="2">
         <v>2</v>
@@ -85517,7 +86526,7 @@
         <v>451000</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>240</v>
+        <v>3399</v>
       </c>
       <c r="C222" s="2">
         <v>2</v>
@@ -85528,7 +86537,7 @@
         <v>451100</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>241</v>
+        <v>3400</v>
       </c>
       <c r="C223" s="2">
         <v>2</v>
@@ -85539,7 +86548,7 @@
         <v>451200</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>242</v>
+        <v>3401</v>
       </c>
       <c r="C224" s="2">
         <v>2</v>
@@ -85550,7 +86559,7 @@
         <v>451300</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>243</v>
+        <v>3402</v>
       </c>
       <c r="C225" s="2">
         <v>2</v>
@@ -85561,7 +86570,7 @@
         <v>451400</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>244</v>
+        <v>3403</v>
       </c>
       <c r="C226" s="2">
         <v>2</v>
@@ -85572,7 +86581,7 @@
         <v>460100</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>246</v>
+        <v>3404</v>
       </c>
       <c r="C227" s="2">
         <v>2</v>
@@ -85583,7 +86592,7 @@
         <v>460200</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>247</v>
+        <v>3405</v>
       </c>
       <c r="C228" s="2">
         <v>2</v>
@@ -85594,7 +86603,7 @@
         <v>460300</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>248</v>
+        <v>3406</v>
       </c>
       <c r="C229" s="2">
         <v>2</v>
@@ -85605,7 +86614,7 @@
         <v>460400</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>249</v>
+        <v>3407</v>
       </c>
       <c r="C230" s="2">
         <v>2</v>
@@ -85616,7 +86625,7 @@
         <v>510100</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>252</v>
+        <v>3408</v>
       </c>
       <c r="C231" s="2">
         <v>2</v>
@@ -85627,7 +86636,7 @@
         <v>510300</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>253</v>
+        <v>3409</v>
       </c>
       <c r="C232" s="2">
         <v>2</v>
@@ -85638,7 +86647,7 @@
         <v>510400</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>254</v>
+        <v>3410</v>
       </c>
       <c r="C233" s="2">
         <v>2</v>
@@ -85649,7 +86658,7 @@
         <v>510500</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>255</v>
+        <v>3411</v>
       </c>
       <c r="C234" s="2">
         <v>2</v>
@@ -85660,7 +86669,7 @@
         <v>510600</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>256</v>
+        <v>3412</v>
       </c>
       <c r="C235" s="2">
         <v>2</v>
@@ -85671,7 +86680,7 @@
         <v>510700</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>257</v>
+        <v>3413</v>
       </c>
       <c r="C236" s="2">
         <v>2</v>
@@ -85682,7 +86691,7 @@
         <v>510800</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>258</v>
+        <v>3414</v>
       </c>
       <c r="C237" s="2">
         <v>2</v>
@@ -85693,7 +86702,7 @@
         <v>510900</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>259</v>
+        <v>3415</v>
       </c>
       <c r="C238" s="2">
         <v>2</v>
@@ -85704,7 +86713,7 @@
         <v>511000</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>260</v>
+        <v>3416</v>
       </c>
       <c r="C239" s="2">
         <v>2</v>
@@ -85715,7 +86724,7 @@
         <v>511100</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>261</v>
+        <v>3417</v>
       </c>
       <c r="C240" s="2">
         <v>2</v>
@@ -85726,7 +86735,7 @@
         <v>511300</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>262</v>
+        <v>3418</v>
       </c>
       <c r="C241" s="2">
         <v>2</v>
@@ -85737,7 +86746,7 @@
         <v>511400</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>263</v>
+        <v>3419</v>
       </c>
       <c r="C242" s="2">
         <v>2</v>
@@ -85748,7 +86757,7 @@
         <v>511500</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>264</v>
+        <v>3420</v>
       </c>
       <c r="C243" s="2">
         <v>2</v>
@@ -85759,7 +86768,7 @@
         <v>511600</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>265</v>
+        <v>3421</v>
       </c>
       <c r="C244" s="2">
         <v>2</v>
@@ -85770,7 +86779,7 @@
         <v>511700</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>266</v>
+        <v>3422</v>
       </c>
       <c r="C245" s="2">
         <v>2</v>
@@ -85781,7 +86790,7 @@
         <v>511800</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>267</v>
+        <v>3423</v>
       </c>
       <c r="C246" s="2">
         <v>2</v>
@@ -85792,7 +86801,7 @@
         <v>511900</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>268</v>
+        <v>3424</v>
       </c>
       <c r="C247" s="2">
         <v>2</v>
@@ -85803,7 +86812,7 @@
         <v>512000</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>269</v>
+        <v>3425</v>
       </c>
       <c r="C248" s="2">
         <v>2</v>
@@ -85814,7 +86823,7 @@
         <v>513200</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>270</v>
+        <v>3426</v>
       </c>
       <c r="C249" s="2">
         <v>2</v>
@@ -85825,7 +86834,7 @@
         <v>513300</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>271</v>
+        <v>3427</v>
       </c>
       <c r="C250" s="2">
         <v>2</v>
@@ -85836,7 +86845,7 @@
         <v>513400</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>272</v>
+        <v>3428</v>
       </c>
       <c r="C251" s="2">
         <v>2</v>
@@ -85847,7 +86856,7 @@
         <v>520100</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>274</v>
+        <v>3429</v>
       </c>
       <c r="C252" s="2">
         <v>2</v>
@@ -85858,7 +86867,7 @@
         <v>520200</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>275</v>
+        <v>3430</v>
       </c>
       <c r="C253" s="2">
         <v>2</v>
@@ -85869,7 +86878,7 @@
         <v>520300</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>276</v>
+        <v>3431</v>
       </c>
       <c r="C254" s="2">
         <v>2</v>
@@ -85880,7 +86889,7 @@
         <v>520400</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>277</v>
+        <v>3432</v>
       </c>
       <c r="C255" s="2">
         <v>2</v>
@@ -85891,7 +86900,7 @@
         <v>520500</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>278</v>
+        <v>3433</v>
       </c>
       <c r="C256" s="2">
         <v>2</v>
@@ -85902,7 +86911,7 @@
         <v>520600</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>279</v>
+        <v>3434</v>
       </c>
       <c r="C257" s="2">
         <v>2</v>
@@ -85913,7 +86922,7 @@
         <v>522300</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>280</v>
+        <v>3435</v>
       </c>
       <c r="C258" s="2">
         <v>2</v>
@@ -85924,7 +86933,7 @@
         <v>522600</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>281</v>
+        <v>3436</v>
       </c>
       <c r="C259" s="2">
         <v>2</v>
@@ -85935,7 +86944,7 @@
         <v>522700</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>282</v>
+        <v>3437</v>
       </c>
       <c r="C260" s="2">
         <v>2</v>
@@ -85946,7 +86955,7 @@
         <v>530100</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>284</v>
+        <v>3438</v>
       </c>
       <c r="C261" s="2">
         <v>2</v>
@@ -85957,7 +86966,7 @@
         <v>530300</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>285</v>
+        <v>3439</v>
       </c>
       <c r="C262" s="2">
         <v>2</v>
@@ -85968,7 +86977,7 @@
         <v>530400</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>286</v>
+        <v>3440</v>
       </c>
       <c r="C263" s="2">
         <v>2</v>
@@ -85979,7 +86988,7 @@
         <v>530500</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>287</v>
+        <v>3441</v>
       </c>
       <c r="C264" s="2">
         <v>2</v>
@@ -85990,7 +86999,7 @@
         <v>530600</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>288</v>
+        <v>3442</v>
       </c>
       <c r="C265" s="2">
         <v>2</v>
@@ -86001,7 +87010,7 @@
         <v>530700</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>289</v>
+        <v>3443</v>
       </c>
       <c r="C266" s="2">
         <v>2</v>
@@ -86012,7 +87021,7 @@
         <v>530800</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>290</v>
+        <v>3444</v>
       </c>
       <c r="C267" s="2">
         <v>2</v>
@@ -86023,7 +87032,7 @@
         <v>530900</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>291</v>
+        <v>3445</v>
       </c>
       <c r="C268" s="2">
         <v>2</v>
@@ -86034,7 +87043,7 @@
         <v>532300</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>292</v>
+        <v>3446</v>
       </c>
       <c r="C269" s="2">
         <v>2</v>
@@ -86045,7 +87054,7 @@
         <v>532500</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>293</v>
+        <v>3447</v>
       </c>
       <c r="C270" s="2">
         <v>2</v>
@@ -86056,7 +87065,7 @@
         <v>532600</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>294</v>
+        <v>3448</v>
       </c>
       <c r="C271" s="2">
         <v>2</v>
@@ -86067,7 +87076,7 @@
         <v>532800</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>295</v>
+        <v>3449</v>
       </c>
       <c r="C272" s="2">
         <v>2</v>
@@ -86078,7 +87087,7 @@
         <v>532900</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>296</v>
+        <v>3450</v>
       </c>
       <c r="C273" s="2">
         <v>2</v>
@@ -86089,7 +87098,7 @@
         <v>533100</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>297</v>
+        <v>3451</v>
       </c>
       <c r="C274" s="2">
         <v>2</v>
@@ -86100,7 +87109,7 @@
         <v>533300</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>298</v>
+        <v>3452</v>
       </c>
       <c r="C275" s="2">
         <v>2</v>
@@ -86111,7 +87120,7 @@
         <v>533400</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>299</v>
+        <v>3453</v>
       </c>
       <c r="C276" s="2">
         <v>2</v>
@@ -86122,7 +87131,7 @@
         <v>540100</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>301</v>
+        <v>3454</v>
       </c>
       <c r="C277" s="2">
         <v>2</v>
@@ -86133,7 +87142,7 @@
         <v>540200</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>302</v>
+        <v>3455</v>
       </c>
       <c r="C278" s="2">
         <v>2</v>
@@ -86144,7 +87153,7 @@
         <v>540300</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>303</v>
+        <v>3456</v>
       </c>
       <c r="C279" s="2">
         <v>2</v>
@@ -86155,7 +87164,7 @@
         <v>540400</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>304</v>
+        <v>3457</v>
       </c>
       <c r="C280" s="2">
         <v>2</v>
@@ -86166,7 +87175,7 @@
         <v>540500</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>305</v>
+        <v>3458</v>
       </c>
       <c r="C281" s="2">
         <v>2</v>
@@ -86177,7 +87186,7 @@
         <v>540600</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>306</v>
+        <v>3459</v>
       </c>
       <c r="C282" s="2">
         <v>2</v>
@@ -86188,7 +87197,7 @@
         <v>542500</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>307</v>
+        <v>3460</v>
       </c>
       <c r="C283" s="2">
         <v>2</v>
@@ -86199,7 +87208,7 @@
         <v>610100</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>309</v>
+        <v>3461</v>
       </c>
       <c r="C284" s="2">
         <v>2</v>
@@ -86210,7 +87219,7 @@
         <v>610200</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>310</v>
+        <v>3462</v>
       </c>
       <c r="C285" s="2">
         <v>2</v>
@@ -86221,7 +87230,7 @@
         <v>610300</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>311</v>
+        <v>3463</v>
       </c>
       <c r="C286" s="2">
         <v>2</v>
@@ -86232,7 +87241,7 @@
         <v>610400</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>312</v>
+        <v>3464</v>
       </c>
       <c r="C287" s="2">
         <v>2</v>
@@ -86243,7 +87252,7 @@
         <v>610500</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>313</v>
+        <v>3465</v>
       </c>
       <c r="C288" s="2">
         <v>2</v>
@@ -86254,7 +87263,7 @@
         <v>610600</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>314</v>
+        <v>3466</v>
       </c>
       <c r="C289" s="2">
         <v>2</v>
@@ -86265,7 +87274,7 @@
         <v>610700</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>315</v>
+        <v>3467</v>
       </c>
       <c r="C290" s="2">
         <v>2</v>
@@ -86276,7 +87285,7 @@
         <v>610800</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>316</v>
+        <v>3468</v>
       </c>
       <c r="C291" s="2">
         <v>2</v>
@@ -86287,7 +87296,7 @@
         <v>610900</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>317</v>
+        <v>3469</v>
       </c>
       <c r="C292" s="2">
         <v>2</v>
@@ -86298,7 +87307,7 @@
         <v>611000</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>318</v>
+        <v>3470</v>
       </c>
       <c r="C293" s="2">
         <v>2</v>
@@ -86309,7 +87318,7 @@
         <v>620100</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>320</v>
+        <v>3471</v>
       </c>
       <c r="C294" s="2">
         <v>2</v>
@@ -86320,7 +87329,7 @@
         <v>620200</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>321</v>
+        <v>3472</v>
       </c>
       <c r="C295" s="2">
         <v>2</v>
@@ -86331,7 +87340,7 @@
         <v>620300</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>322</v>
+        <v>3473</v>
       </c>
       <c r="C296" s="2">
         <v>2</v>
@@ -86342,7 +87351,7 @@
         <v>620400</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>323</v>
+        <v>3474</v>
       </c>
       <c r="C297" s="2">
         <v>2</v>
@@ -86353,7 +87362,7 @@
         <v>620500</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>324</v>
+        <v>3475</v>
       </c>
       <c r="C298" s="2">
         <v>2</v>
@@ -86364,7 +87373,7 @@
         <v>620600</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>325</v>
+        <v>3476</v>
       </c>
       <c r="C299" s="2">
         <v>2</v>
@@ -86375,7 +87384,7 @@
         <v>620700</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>326</v>
+        <v>3477</v>
       </c>
       <c r="C300" s="2">
         <v>2</v>
@@ -86386,7 +87395,7 @@
         <v>620800</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>327</v>
+        <v>3478</v>
       </c>
       <c r="C301" s="2">
         <v>2</v>
@@ -86397,7 +87406,7 @@
         <v>620900</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>328</v>
+        <v>3479</v>
       </c>
       <c r="C302" s="2">
         <v>2</v>
@@ -86408,7 +87417,7 @@
         <v>621000</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>329</v>
+        <v>3480</v>
       </c>
       <c r="C303" s="2">
         <v>2</v>
@@ -86419,7 +87428,7 @@
         <v>621100</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>330</v>
+        <v>3481</v>
       </c>
       <c r="C304" s="2">
         <v>2</v>
@@ -86430,7 +87439,7 @@
         <v>621200</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>331</v>
+        <v>3482</v>
       </c>
       <c r="C305" s="2">
         <v>2</v>
@@ -86441,7 +87450,7 @@
         <v>622900</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>332</v>
+        <v>3483</v>
       </c>
       <c r="C306" s="2">
         <v>2</v>
@@ -86452,7 +87461,7 @@
         <v>623000</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>333</v>
+        <v>3484</v>
       </c>
       <c r="C307" s="2">
         <v>2</v>
@@ -86463,7 +87472,7 @@
         <v>630100</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>335</v>
+        <v>3485</v>
       </c>
       <c r="C308" s="2">
         <v>2</v>
@@ -86474,7 +87483,7 @@
         <v>630200</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>336</v>
+        <v>3486</v>
       </c>
       <c r="C309" s="2">
         <v>2</v>
@@ -86485,7 +87494,7 @@
         <v>632200</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>337</v>
+        <v>3487</v>
       </c>
       <c r="C310" s="2">
         <v>2</v>
@@ -86496,7 +87505,7 @@
         <v>632300</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>338</v>
+        <v>3488</v>
       </c>
       <c r="C311" s="2">
         <v>2</v>
@@ -86507,7 +87516,7 @@
         <v>632500</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>339</v>
+        <v>3489</v>
       </c>
       <c r="C312" s="2">
         <v>2</v>
@@ -86518,7 +87527,7 @@
         <v>632600</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>340</v>
+        <v>3490</v>
       </c>
       <c r="C313" s="2">
         <v>2</v>
@@ -86529,7 +87538,7 @@
         <v>632700</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>341</v>
+        <v>3491</v>
       </c>
       <c r="C314" s="2">
         <v>2</v>
@@ -86540,7 +87549,7 @@
         <v>632800</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>342</v>
+        <v>3492</v>
       </c>
       <c r="C315" s="2">
         <v>2</v>
@@ -86551,7 +87560,7 @@
         <v>640100</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>344</v>
+        <v>3493</v>
       </c>
       <c r="C316" s="2">
         <v>2</v>
@@ -86562,7 +87571,7 @@
         <v>640200</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>345</v>
+        <v>3494</v>
       </c>
       <c r="C317" s="2">
         <v>2</v>
@@ -86573,7 +87582,7 @@
         <v>640300</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>346</v>
+        <v>3495</v>
       </c>
       <c r="C318" s="2">
         <v>2</v>
@@ -86584,7 +87593,7 @@
         <v>640400</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>347</v>
+        <v>3496</v>
       </c>
       <c r="C319" s="2">
         <v>2</v>
@@ -86595,7 +87604,7 @@
         <v>640500</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>348</v>
+        <v>3497</v>
       </c>
       <c r="C320" s="2">
         <v>2</v>
@@ -86606,7 +87615,7 @@
         <v>650100</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>350</v>
+        <v>3498</v>
       </c>
       <c r="C321" s="2">
         <v>2</v>
@@ -86617,7 +87626,7 @@
         <v>650200</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>351</v>
+        <v>3499</v>
       </c>
       <c r="C322" s="2">
         <v>2</v>
@@ -86628,7 +87637,7 @@
         <v>650400</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>352</v>
+        <v>3500</v>
       </c>
       <c r="C323" s="2">
         <v>2</v>
@@ -86639,7 +87648,7 @@
         <v>650500</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>353</v>
+        <v>3501</v>
       </c>
       <c r="C324" s="2">
         <v>2</v>
@@ -86650,7 +87659,7 @@
         <v>652300</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>354</v>
+        <v>3502</v>
       </c>
       <c r="C325" s="2">
         <v>2</v>
@@ -86661,7 +87670,7 @@
         <v>652700</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>355</v>
+        <v>3503</v>
       </c>
       <c r="C326" s="2">
         <v>2</v>
@@ -86672,7 +87681,7 @@
         <v>652800</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>356</v>
+        <v>3183</v>
       </c>
       <c r="C327" s="2">
         <v>2</v>
@@ -86683,7 +87692,7 @@
         <v>652900</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>357</v>
+        <v>3504</v>
       </c>
       <c r="C328" s="2">
         <v>2</v>
@@ -86694,7 +87703,7 @@
         <v>653000</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>358</v>
+        <v>3505</v>
       </c>
       <c r="C329" s="2">
         <v>2</v>
@@ -86705,7 +87714,7 @@
         <v>653100</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>359</v>
+        <v>3506</v>
       </c>
       <c r="C330" s="2">
         <v>2</v>
@@ -86716,7 +87725,7 @@
         <v>653200</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>360</v>
+        <v>3507</v>
       </c>
       <c r="C331" s="2">
         <v>2</v>
@@ -86727,7 +87736,7 @@
         <v>654000</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>361</v>
+        <v>3508</v>
       </c>
       <c r="C332" s="2">
         <v>2</v>
@@ -86738,7 +87747,7 @@
         <v>654200</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>362</v>
+        <v>3509</v>
       </c>
       <c r="C333" s="2">
         <v>2</v>
@@ -86749,7 +87758,7 @@
         <v>654300</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>363</v>
+        <v>3510</v>
       </c>
       <c r="C334" s="2">
         <v>2</v>
@@ -86758,6 +87767,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -86765,8 +87775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB502A7D-170E-4171-91FD-5F3E8B81B735}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
